--- a/biology/Histoire de la zoologie et de la botanique/Harry_Schelwald_Swarth/Harry_Schelwald_Swarth.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Harry_Schelwald_Swarth/Harry_Schelwald_Swarth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harry Schelwald Swarth est un ornithologue américain, né le 26 janvier 1878 à Chicago et mort le 22 octobre 1935 à Berkeley (Californie).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa famille, d’origine néerlandaise, est venue d’Amsterdam s’installer aux États-Unis d'Amérique. Il fait ses études au Baptist College de Los Angeles. Il travaille comme assistant au Field Museum of Natural History de Chicago de 1905 à 1908, puis devient conservateur des oiseaux au musée de zoologie des vertébrés à Berkeley (1908 à 1927). Enfin, il devient conservateur du département des oiseaux et des mammifères à la California Academy of Sciences.
 Swarth se consacre à la conservation de l’archipel des Galapagos, espérant y transformer au moins une île en réserve naturelle.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>G.M.M. (1936). Obituary, Ibis, 78 (2) : 386.</t>
         </is>
